--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>141.6845878282612</v>
+        <v>54.30548615129751</v>
       </c>
       <c r="R2">
-        <v>566.738351313045</v>
+        <v>217.22194460519</v>
       </c>
       <c r="S2">
-        <v>0.07795927093401066</v>
+        <v>0.02181260923012949</v>
       </c>
       <c r="T2">
-        <v>0.04867254659951422</v>
+        <v>0.01180651572722287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>79.66281793951133</v>
+        <v>74.11529823924334</v>
       </c>
       <c r="R3">
-        <v>477.9769076370679</v>
+        <v>444.6917894354601</v>
       </c>
       <c r="S3">
-        <v>0.04383296237302074</v>
+        <v>0.02976951599260276</v>
       </c>
       <c r="T3">
-        <v>0.04104954827312637</v>
+        <v>0.02417002856354689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>20.90306553733916</v>
+        <v>8.345354849393335</v>
       </c>
       <c r="R4">
-        <v>125.418393224035</v>
+        <v>50.07212909636001</v>
       </c>
       <c r="S4">
-        <v>0.01150151738135457</v>
+        <v>0.003352036361656503</v>
       </c>
       <c r="T4">
-        <v>0.01077116552019114</v>
+        <v>0.002721536172352191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>143.951701198489</v>
+        <v>96.47180960416127</v>
       </c>
       <c r="R5">
-        <v>575.806804793956</v>
+        <v>385.8872384166451</v>
       </c>
       <c r="S5">
-        <v>0.07920670728666418</v>
+        <v>0.03874934253891666</v>
       </c>
       <c r="T5">
-        <v>0.04945136229746822</v>
+        <v>0.02097386503735345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>38.98255417662933</v>
+        <v>302.7251094430209</v>
       </c>
       <c r="R6">
-        <v>233.895325059776</v>
+        <v>1816.350656658125</v>
       </c>
       <c r="S6">
-        <v>0.02144941485406508</v>
+        <v>0.1215940595399867</v>
       </c>
       <c r="T6">
-        <v>0.02008736673988068</v>
+        <v>0.09872286445535013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>54.72369301043283</v>
+        <v>21.5878523000875</v>
       </c>
       <c r="R7">
-        <v>328.342158062597</v>
+        <v>129.527113800525</v>
       </c>
       <c r="S7">
-        <v>0.03011067946981734</v>
+        <v>0.008671083157742985</v>
       </c>
       <c r="T7">
-        <v>0.02819863690512692</v>
+        <v>0.00704009859117681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>45.3264059312825</v>
+        <v>18.67326166512367</v>
       </c>
       <c r="R8">
-        <v>271.958435587695</v>
+        <v>112.039569990742</v>
       </c>
       <c r="S8">
-        <v>0.02493999957670036</v>
+        <v>0.007500394317776819</v>
       </c>
       <c r="T8">
-        <v>0.02335629766117857</v>
+        <v>0.006089610087835381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>25.48498237460311</v>
@@ -1013,10 +1013,10 @@
         <v>229.364841371428</v>
       </c>
       <c r="S9">
-        <v>0.01402263066254178</v>
+        <v>0.01023642363177101</v>
       </c>
       <c r="T9">
-        <v>0.01969828035119961</v>
+        <v>0.01246651028672838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>6.687112891220556</v>
+        <v>2.869599479449779</v>
       </c>
       <c r="R10">
-        <v>60.184016020985</v>
+        <v>25.826395315048</v>
       </c>
       <c r="S10">
-        <v>0.003679457685862658</v>
+        <v>0.001152617470688557</v>
       </c>
       <c r="T10">
-        <v>0.005168715541379098</v>
+        <v>0.001403724393586448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>46.05167960067934</v>
+        <v>33.1724006489435</v>
       </c>
       <c r="R11">
-        <v>276.310077604076</v>
+        <v>199.034403893661</v>
       </c>
       <c r="S11">
-        <v>0.02533906772772853</v>
+        <v>0.01332418994583313</v>
       </c>
       <c r="T11">
-        <v>0.02373002479352454</v>
+        <v>0.0108179807712337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>12.47093351458845</v>
+        <v>104.0938141219028</v>
       </c>
       <c r="R12">
-        <v>112.238401631296</v>
+        <v>936.8443270971251</v>
       </c>
       <c r="S12">
-        <v>0.006861895846020231</v>
+        <v>0.04181083444108987</v>
       </c>
       <c r="T12">
-        <v>0.009639243261017165</v>
+        <v>0.0509196587017731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>17.50669117558745</v>
+        <v>7.423110321938335</v>
       </c>
       <c r="R13">
-        <v>157.560220580287</v>
+        <v>66.807992897445</v>
       </c>
       <c r="S13">
-        <v>0.009632726476714516</v>
+        <v>0.002981603079170904</v>
       </c>
       <c r="T13">
-        <v>0.01353156559928617</v>
+        <v>0.003631169126496405</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>103.759679995565</v>
+        <v>51.46404704907833</v>
       </c>
       <c r="R14">
-        <v>622.5580799733899</v>
+        <v>308.78428229447</v>
       </c>
       <c r="S14">
-        <v>0.05709180602342842</v>
+        <v>0.02067130279535713</v>
       </c>
       <c r="T14">
-        <v>0.05346644900279833</v>
+        <v>0.01678314081873744</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>58.33936226689512</v>
+        <v>70.2373455421089</v>
       </c>
       <c r="R15">
-        <v>525.054260402056</v>
+        <v>632.1361098789801</v>
       </c>
       <c r="S15">
-        <v>0.03210013325228508</v>
+        <v>0.02821187839849571</v>
       </c>
       <c r="T15">
-        <v>0.04509263912965106</v>
+        <v>0.0343580614591982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>15.30791333288555</v>
+        <v>7.908698826742223</v>
       </c>
       <c r="R16">
-        <v>137.77121999597</v>
+        <v>71.17828944068</v>
       </c>
       <c r="S16">
-        <v>0.008422890458624306</v>
+        <v>0.003176646951394429</v>
       </c>
       <c r="T16">
-        <v>0.01183204932186036</v>
+        <v>0.003868704864260439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>105.4199520224253</v>
+        <v>91.42409174914749</v>
       </c>
       <c r="R17">
-        <v>632.519712134552</v>
+        <v>548.544550494885</v>
       </c>
       <c r="S17">
-        <v>0.05800533937769172</v>
+        <v>0.03672185130592027</v>
       </c>
       <c r="T17">
-        <v>0.05432197255162476</v>
+        <v>0.02981466662712826</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>28.54804046633244</v>
+        <v>286.8855502353472</v>
       </c>
       <c r="R18">
-        <v>256.932364196992</v>
+        <v>2581.969952118125</v>
       </c>
       <c r="S18">
-        <v>0.01570802057911611</v>
+        <v>0.1152318641181116</v>
       </c>
       <c r="T18">
-        <v>0.02206583062594586</v>
+        <v>0.1403360461683814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>40.07572709193044</v>
+        <v>20.45830587659167</v>
       </c>
       <c r="R19">
-        <v>360.681543827374</v>
+        <v>184.124752889325</v>
       </c>
       <c r="S19">
-        <v>0.02205091262307424</v>
+        <v>0.008217383973937476</v>
       </c>
       <c r="T19">
-        <v>0.03097600366880008</v>
+        <v>0.01000760671169731</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N20">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O20">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P20">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q20">
-        <v>38.50593263299125</v>
+        <v>16.6490477699415</v>
       </c>
       <c r="R20">
-        <v>154.023730531965</v>
+        <v>66.596191079766</v>
       </c>
       <c r="S20">
-        <v>0.02118716284329235</v>
+        <v>0.006687338587628422</v>
       </c>
       <c r="T20">
-        <v>0.01322784523824677</v>
+        <v>0.003619657207219435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P21">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q21">
-        <v>21.650139566706</v>
+        <v>22.722366160774</v>
       </c>
       <c r="R21">
-        <v>129.900837400236</v>
+        <v>136.334196964644</v>
       </c>
       <c r="S21">
-        <v>0.01191258076909416</v>
+        <v>0.009126777586854155</v>
       </c>
       <c r="T21">
-        <v>0.0111561261859735</v>
+        <v>0.007410079324844199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N22">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O22">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P22">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q22">
-        <v>5.6808721805325</v>
+        <v>2.558529927484001</v>
       </c>
       <c r="R22">
-        <v>34.085233083195</v>
+        <v>15.351179564904</v>
       </c>
       <c r="S22">
-        <v>0.003125792722073885</v>
+        <v>0.001027671741236527</v>
       </c>
       <c r="T22">
-        <v>0.002927303387451072</v>
+        <v>0.0008343721592856556</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N23">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O23">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P23">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q23">
-        <v>39.12207102915301</v>
+        <v>29.57645498426325</v>
       </c>
       <c r="R23">
-        <v>156.488284116612</v>
+        <v>118.305819937053</v>
       </c>
       <c r="S23">
-        <v>0.02152618136955184</v>
+        <v>0.01187982468634683</v>
       </c>
       <c r="T23">
-        <v>0.01343950569658317</v>
+        <v>0.006430195283664912</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N24">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O24">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P24">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q24">
-        <v>10.594374645792</v>
+        <v>92.8098644441875</v>
       </c>
       <c r="R24">
-        <v>63.56624787475201</v>
+        <v>556.8591866651251</v>
       </c>
       <c r="S24">
-        <v>0.005829354738207927</v>
+        <v>0.03727846759685036</v>
       </c>
       <c r="T24">
-        <v>0.005459187920972667</v>
+        <v>0.03026658635783731</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N25">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O25">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P25">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q25">
-        <v>14.8723786319115</v>
+        <v>6.618432310747501</v>
       </c>
       <c r="R25">
-        <v>89.23427179146901</v>
+        <v>39.71059386448501</v>
       </c>
       <c r="S25">
-        <v>0.008183245707738939</v>
+        <v>0.002658392143073539</v>
       </c>
       <c r="T25">
-        <v>0.007663605686788857</v>
+        <v>0.00215836273747823</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N26">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O26">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P26">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q26">
-        <v>104.429120255445</v>
+        <v>60.855830068521</v>
       </c>
       <c r="R26">
-        <v>626.57472153267</v>
+        <v>365.134980411126</v>
       </c>
       <c r="S26">
-        <v>0.05746015289441892</v>
+        <v>0.02444365265346394</v>
       </c>
       <c r="T26">
-        <v>0.05381140567109977</v>
+        <v>0.01984593175711849</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P27">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q27">
-        <v>58.71575816401867</v>
+        <v>83.05510759187599</v>
       </c>
       <c r="R27">
-        <v>528.441823476168</v>
+        <v>747.4959683268841</v>
       </c>
       <c r="S27">
-        <v>0.03230723799227185</v>
+        <v>0.03336032387999654</v>
       </c>
       <c r="T27">
-        <v>0.04538356936439079</v>
+        <v>0.04062813691373329</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N28">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O28">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P28">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q28">
-        <v>15.40667745282333</v>
+        <v>9.351974037416001</v>
       </c>
       <c r="R28">
-        <v>138.66009707541</v>
+        <v>84.16776633674401</v>
       </c>
       <c r="S28">
-        <v>0.008477233551989698</v>
+        <v>0.003756359986174208</v>
       </c>
       <c r="T28">
-        <v>0.0119083877432325</v>
+        <v>0.00457471301431414</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N29">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O29">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P29">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q29">
-        <v>106.100104082276</v>
+        <v>108.1082680176555</v>
       </c>
       <c r="R29">
-        <v>636.600624493656</v>
+        <v>648.649608105933</v>
       </c>
       <c r="S29">
-        <v>0.05837958021448968</v>
+        <v>0.04342329977942536</v>
       </c>
       <c r="T29">
-        <v>0.0546724489160826</v>
+        <v>0.03525560832943889</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N30">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O30">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P30">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q30">
-        <v>28.73222769233066</v>
+        <v>339.2399023261249</v>
       </c>
       <c r="R30">
-        <v>258.590049230976</v>
+        <v>3053.159120935125</v>
       </c>
       <c r="S30">
-        <v>0.01580936612469926</v>
+        <v>0.1362607712246814</v>
       </c>
       <c r="T30">
-        <v>0.02220819570831054</v>
+        <v>0.1659462686633791</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N31">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O31">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P31">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q31">
-        <v>40.33428904162466</v>
+        <v>24.191785475565</v>
       </c>
       <c r="R31">
-        <v>363.008601374622</v>
+        <v>217.726069280085</v>
       </c>
       <c r="S31">
-        <v>0.02219318145695666</v>
+        <v>0.009716991791353545</v>
       </c>
       <c r="T31">
-        <v>0.03117585571100927</v>
+        <v>0.01183391607074455</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N32">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O32">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P32">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q32">
-        <v>102.8552499761875</v>
+        <v>40.54312562041834</v>
       </c>
       <c r="R32">
-        <v>617.131499857125</v>
+        <v>243.25875372251</v>
       </c>
       <c r="S32">
-        <v>0.0565941604714156</v>
+        <v>0.01628475166693829</v>
       </c>
       <c r="T32">
-        <v>0.05300040418163356</v>
+        <v>0.01322167659823458</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P33">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q33">
-        <v>57.83084228545555</v>
+        <v>55.33263874181556</v>
       </c>
       <c r="R33">
-        <v>520.4775805691</v>
+        <v>497.99374867634</v>
       </c>
       <c r="S33">
-        <v>0.03182032972801992</v>
+        <v>0.02222518040229916</v>
       </c>
       <c r="T33">
-        <v>0.04469958532991348</v>
+        <v>0.02706711348382526</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N34">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O34">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P34">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q34">
-        <v>15.17448061265278</v>
+        <v>6.23043441804889</v>
       </c>
       <c r="R34">
-        <v>136.570325513875</v>
+        <v>56.07390976244</v>
       </c>
       <c r="S34">
-        <v>0.008349471622126027</v>
+        <v>0.002502546997115917</v>
       </c>
       <c r="T34">
-        <v>0.0117289142640238</v>
+        <v>0.003047746850348867</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N35">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O35">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P35">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q35">
-        <v>104.5010501016167</v>
+        <v>72.02345421811751</v>
       </c>
       <c r="R35">
-        <v>627.0063006097</v>
+        <v>432.140725308705</v>
       </c>
       <c r="S35">
-        <v>0.05749973093499407</v>
+        <v>0.02892929561273032</v>
       </c>
       <c r="T35">
-        <v>0.05384847048714664</v>
+        <v>0.02348784916277203</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N36">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O36">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P36">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q36">
-        <v>28.29919905902222</v>
+        <v>226.0070392595139</v>
       </c>
       <c r="R36">
-        <v>254.6927915312</v>
+        <v>2034.063353335625</v>
       </c>
       <c r="S36">
-        <v>0.01557110029025863</v>
+        <v>0.09077910133962627</v>
       </c>
       <c r="T36">
-        <v>0.02187349194851877</v>
+        <v>0.1105560536941762</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N37">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O37">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P37">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q37">
-        <v>39.72640362994722</v>
+        <v>16.11695373169167</v>
       </c>
       <c r="R37">
-        <v>357.537632669525</v>
+        <v>145.052583585225</v>
       </c>
       <c r="S37">
-        <v>0.0218587039796799</v>
+        <v>0.006473615073623052</v>
       </c>
       <c r="T37">
-        <v>0.03070599871504918</v>
+        <v>0.007883943827525939</v>
       </c>
     </row>
   </sheetData>
